--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_40_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_40_7.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9789266480464559</v>
+        <v>0.9639263831439049</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7859735533855338</v>
+        <v>0.8085950306455025</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9726048550746502</v>
+        <v>0.7259084744563167</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994169598332971</v>
+        <v>0.9972445151834435</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9932920538679482</v>
+        <v>0.9462884508011122</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1409176015472131</v>
+        <v>0.2412244420204403</v>
       </c>
       <c r="H2" t="n">
-        <v>1.431195834012105</v>
+        <v>1.279925911412369</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1219125805512314</v>
+        <v>0.8506105740482789</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007738018869794822</v>
+        <v>0.03053548598896753</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06482530549633579</v>
+        <v>0.4405730300186232</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3526468674582117</v>
+        <v>1.17944527262207</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3753899326663051</v>
+        <v>0.4911460495824437</v>
       </c>
       <c r="N2" t="n">
-        <v>1.006928225299795</v>
+        <v>1.01185981924036</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3913710592641968</v>
+        <v>0.5120551537256512</v>
       </c>
       <c r="P2" t="n">
-        <v>197.9191598912282</v>
+        <v>196.8440549683734</v>
       </c>
       <c r="Q2" t="n">
-        <v>316.1501149034437</v>
+        <v>315.0750099805889</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9808093827631769</v>
+        <v>0.9650628332110203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7845700422195113</v>
+        <v>0.8085588077592643</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9628549753204341</v>
+        <v>0.7080164587801687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9978079350455035</v>
+        <v>0.9957574772730547</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9899423297582434</v>
+        <v>0.9418992973105192</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1283277458273035</v>
+        <v>0.2336249951887682</v>
       </c>
       <c r="H3" t="n">
-        <v>1.440581119641872</v>
+        <v>1.280168134019436</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1653010351164343</v>
+        <v>0.9061363247805589</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02909274686448034</v>
+        <v>0.04701441013505751</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09719689651172675</v>
+        <v>0.4765753922928322</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3766153989666383</v>
+        <v>1.079805790926219</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3582286222893188</v>
+        <v>0.4833476959588907</v>
       </c>
       <c r="N3" t="n">
-        <v>1.006309244023065</v>
+        <v>1.011486191821034</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3734791563756523</v>
+        <v>0.503924808043526</v>
       </c>
       <c r="P3" t="n">
-        <v>198.1063355466367</v>
+        <v>196.9080760676005</v>
       </c>
       <c r="Q3" t="n">
-        <v>316.3372905588521</v>
+        <v>315.1390310798159</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9818013269544372</v>
+        <v>0.9656615837654303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7825245262967566</v>
+        <v>0.8080546178360212</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9529687592842272</v>
+        <v>0.6911785934912056</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9955088366774836</v>
+        <v>0.9940109960877774</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9860873645674901</v>
+        <v>0.9375343103039251</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1216946104528628</v>
+        <v>0.229621147474436</v>
       </c>
       <c r="H4" t="n">
-        <v>1.454259494036068</v>
+        <v>1.283539654357743</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2092962069669649</v>
+        <v>0.9583906446862285</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05960602463033176</v>
+        <v>0.06636840963547105</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1344511157986484</v>
+        <v>0.5123795271608498</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3966281566423309</v>
+        <v>0.9890854259869643</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3488475461471139</v>
+        <v>0.4791880084835554</v>
       </c>
       <c r="N4" t="n">
-        <v>1.005983125384843</v>
+        <v>1.011289342323694</v>
       </c>
       <c r="O4" t="n">
-        <v>0.363698708400569</v>
+        <v>0.4995880340606257</v>
       </c>
       <c r="P4" t="n">
-        <v>198.2124811309679</v>
+        <v>196.9426490261066</v>
       </c>
       <c r="Q4" t="n">
-        <v>316.4434361431834</v>
+        <v>315.1736040383221</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9821413387226273</v>
+        <v>0.9658531083138705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7800591479771249</v>
+        <v>0.8072264676657865</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9432174280521392</v>
+        <v>0.6754607403997954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9927833755557232</v>
+        <v>0.9920809870773101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9819706860149598</v>
+        <v>0.9332572208859804</v>
       </c>
       <c r="G5" t="n">
-        <v>0.119420950193365</v>
+        <v>0.2283404219371264</v>
       </c>
       <c r="H5" t="n">
-        <v>1.470745490211468</v>
+        <v>1.289077498359383</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2526911208304655</v>
+        <v>1.007169139440383</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09577792288622503</v>
+        <v>0.08775621142759064</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1742345218583453</v>
+        <v>0.5474626754339871</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4135119537286746</v>
+        <v>0.9066237746132555</v>
       </c>
       <c r="M5" t="n">
-        <v>0.34557336441538</v>
+        <v>0.4778497901402975</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005871340693931</v>
+        <v>1.011226375348864</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3602851379740247</v>
+        <v>0.4981928449920014</v>
       </c>
       <c r="P5" t="n">
-        <v>198.2502012623187</v>
+        <v>196.9538353697796</v>
       </c>
       <c r="Q5" t="n">
-        <v>316.4811562745342</v>
+        <v>315.1847903819951</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9820094784454202</v>
+        <v>0.9657411801979195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7773398267963799</v>
+        <v>0.8061828013854276</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9337734854564315</v>
+        <v>0.660880159356384</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9898198036136104</v>
+        <v>0.9900341687795905</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9777612801503258</v>
+        <v>0.9291163656510981</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1203027004742102</v>
+        <v>0.2290888857638723</v>
       </c>
       <c r="H6" t="n">
-        <v>1.488929603468433</v>
+        <v>1.296056499581784</v>
       </c>
       <c r="I6" t="n">
-        <v>0.294718108296958</v>
+        <v>1.052418245142183</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1351099911033203</v>
+        <v>0.1104384599656477</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2149140407097442</v>
+        <v>0.5814283525539153</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4279975249614105</v>
+        <v>0.8317594255402367</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3468467968342943</v>
+        <v>0.4786323074802539</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005914692017944</v>
+        <v>1.011263173633561</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3616127830473806</v>
+        <v>0.4990086757151539</v>
       </c>
       <c r="P6" t="n">
-        <v>198.2354884168426</v>
+        <v>196.9472904065943</v>
       </c>
       <c r="Q6" t="n">
-        <v>316.466443429058</v>
+        <v>315.1782454188098</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9815424123583778</v>
+        <v>0.9654081165427471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7744899806292236</v>
+        <v>0.8050048133737679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9247478323206383</v>
+        <v>0.6474209126048831</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9867518518364243</v>
+        <v>0.9879277056069922</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9735765087559808</v>
+        <v>0.9251473481550346</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1234259735489036</v>
+        <v>0.231316083959628</v>
       </c>
       <c r="H7" t="n">
-        <v>1.507986537910542</v>
+        <v>1.303933710839889</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3348836437574645</v>
+        <v>1.094187422729277</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1758273723392279</v>
+        <v>0.1337816757608033</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2553554930903051</v>
+        <v>0.61398451767145</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4404373256218785</v>
+        <v>0.7638397539199516</v>
       </c>
       <c r="M7" t="n">
-        <v>0.351320328971871</v>
+        <v>0.4809533074630301</v>
       </c>
       <c r="N7" t="n">
-        <v>1.006068247991766</v>
+        <v>1.011372674013344</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3662767627095421</v>
+        <v>0.5014284854723292</v>
       </c>
       <c r="P7" t="n">
-        <v>198.1842274141822</v>
+        <v>196.9279403498792</v>
       </c>
       <c r="Q7" t="n">
-        <v>316.4151824263977</v>
+        <v>315.1588953620946</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9808438890923653</v>
+        <v>0.9649189700317927</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7716009593389469</v>
+        <v>0.8037532921108222</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9162098023378048</v>
+        <v>0.6350457394022894</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9836740079021742</v>
+        <v>0.9858091697453699</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9694972152950022</v>
+        <v>0.9213752432948463</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1280970018451334</v>
+        <v>0.2345870089306923</v>
       </c>
       <c r="H8" t="n">
-        <v>1.527305436581342</v>
+        <v>1.312302639287932</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3728791816846191</v>
+        <v>1.132592306502772</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2166760407529255</v>
+        <v>0.1572586776049042</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2947776112187723</v>
+        <v>0.6449254920538381</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4511632845462287</v>
+        <v>0.7022762835640337</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3579064149259321</v>
+        <v>0.4843418306637289</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006297899476483</v>
+        <v>1.011533489304616</v>
       </c>
       <c r="O8" t="n">
-        <v>0.373143231977745</v>
+        <v>0.5049612651208918</v>
       </c>
       <c r="P8" t="n">
-        <v>198.1099349503065</v>
+        <v>196.8998574393961</v>
       </c>
       <c r="Q8" t="n">
-        <v>316.3408899625219</v>
+        <v>315.1308124516115</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9799929557670358</v>
+        <v>0.9643245083965278</v>
       </c>
       <c r="C9" t="n">
-        <v>0.768739690922991</v>
+        <v>0.8024732939077011</v>
       </c>
       <c r="D9" t="n">
-        <v>0.908200297627721</v>
+        <v>0.6237021751346836</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9806525571085603</v>
+        <v>0.9837167256968953</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9655783369231719</v>
+        <v>0.9178159329350404</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1337871969097996</v>
+        <v>0.2385621766229529</v>
       </c>
       <c r="H9" t="n">
-        <v>1.546438751653769</v>
+        <v>1.320861993166053</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4085227013960259</v>
+        <v>1.167795714175746</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2567762681306686</v>
+        <v>0.1804465375201487</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3326494847633472</v>
+        <v>0.6741210035105962</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4604369004957383</v>
+        <v>0.6465552832342735</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3657693219910599</v>
+        <v>0.488428271727746</v>
       </c>
       <c r="N9" t="n">
-        <v>1.006577658377961</v>
+        <v>1.011728928746347</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3813408792750968</v>
+        <v>0.5092216744411032</v>
       </c>
       <c r="P9" t="n">
-        <v>198.023009648268</v>
+        <v>196.866250608002</v>
       </c>
       <c r="Q9" t="n">
-        <v>316.2539646604835</v>
+        <v>315.0972056202174</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9790493396609458</v>
+        <v>0.9636644018153179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7659540033071167</v>
+        <v>0.8011979285597822</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9007391049790553</v>
+        <v>0.6133328187400522</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9777325017590678</v>
+        <v>0.981680296075093</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9618553295048945</v>
+        <v>0.9144787252381466</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1400971621561759</v>
+        <v>0.2429763123710149</v>
       </c>
       <c r="H10" t="n">
-        <v>1.565066657568032</v>
+        <v>1.329390367120104</v>
       </c>
       <c r="I10" t="n">
-        <v>0.441726148658939</v>
+        <v>1.199975783143048</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2955307908644928</v>
+        <v>0.2030136617555751</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3686284697617159</v>
+        <v>0.7014947011371109</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4684668782435839</v>
+        <v>0.5961231446588868</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3742955545503792</v>
+        <v>0.4929262747825631</v>
       </c>
       <c r="N10" t="n">
-        <v>1.006887888330648</v>
+        <v>1.011945950088115</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3902300912062009</v>
+        <v>0.5139111667981139</v>
       </c>
       <c r="P10" t="n">
-        <v>197.9308381633778</v>
+        <v>196.8295826406955</v>
       </c>
       <c r="Q10" t="n">
-        <v>316.1617931755933</v>
+        <v>315.060537652911</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9780580412286735</v>
+        <v>0.962968796952302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7632774465946922</v>
+        <v>0.7999510134968422</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8938296440248545</v>
+        <v>0.603872564780956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9749440818628657</v>
+        <v>0.9797218037416833</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9583497483236711</v>
+        <v>0.9113661575493385</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1467259793372905</v>
+        <v>0.2476278252929677</v>
       </c>
       <c r="H11" t="n">
-        <v>1.582964804628425</v>
+        <v>1.3377284938875</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4724743055838225</v>
+        <v>1.229334560415813</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3325382682322059</v>
+        <v>0.2247171074965928</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4025062568729099</v>
+        <v>0.7270257721683782</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4754233446473786</v>
+        <v>0.5504899521319593</v>
       </c>
       <c r="M11" t="n">
-        <v>0.38304827285512</v>
+        <v>0.4976221712232763</v>
       </c>
       <c r="N11" t="n">
-        <v>1.007213794664546</v>
+        <v>1.012174642097873</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3993554308497992</v>
+        <v>0.518806977272154</v>
       </c>
       <c r="P11" t="n">
-        <v>197.83837703583</v>
+        <v>196.7916567289316</v>
       </c>
       <c r="Q11" t="n">
-        <v>316.0693320480455</v>
+        <v>315.022611741147</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9770523070559498</v>
+        <v>0.9622607985209143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7607322808030318</v>
+        <v>0.7987491766095108</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8874631444961902</v>
+        <v>0.5952587413337697</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9723059231529485</v>
+        <v>0.9778571811236046</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9550723530746715</v>
+        <v>0.9084771068146662</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1534513283812736</v>
+        <v>0.2523622140636905</v>
       </c>
       <c r="H12" t="n">
-        <v>1.599984339996669</v>
+        <v>1.345765182687035</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5008062012073958</v>
+        <v>1.256066540883388</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3675515023877483</v>
+        <v>0.2453803161947283</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4341788648614373</v>
+        <v>0.7507234285390582</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4814502324865192</v>
+        <v>0.5092311286610982</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3917286412572785</v>
+        <v>0.5023566602163153</v>
       </c>
       <c r="N12" t="n">
-        <v>1.007544446995304</v>
+        <v>1.012407408705453</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4084053405056773</v>
+        <v>0.52374302326337</v>
       </c>
       <c r="P12" t="n">
-        <v>197.7487436823688</v>
+        <v>196.7537797321689</v>
       </c>
       <c r="Q12" t="n">
-        <v>315.9796986945843</v>
+        <v>314.9847347443844</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9760564986831759</v>
+        <v>0.961557248547325</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7583322250657238</v>
+        <v>0.7976036763182044</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8816227820977964</v>
+        <v>0.5874261511919033</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9698283446714453</v>
+        <v>0.9760961729179416</v>
       </c>
       <c r="F13" t="n">
-        <v>0.952026366186925</v>
+        <v>0.9058058518206488</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1601103035552892</v>
+        <v>0.2570668559766313</v>
       </c>
       <c r="H13" t="n">
-        <v>1.616033523763289</v>
+        <v>1.353425148409545</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5267967062141318</v>
+        <v>1.280374056351596</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4004335406008044</v>
+        <v>0.2648952999345701</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4636151523105143</v>
+        <v>0.7726345989338788</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4866726603171528</v>
+        <v>0.4719381098363631</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4001378556888728</v>
+        <v>0.507017609138609</v>
       </c>
       <c r="N13" t="n">
-        <v>1.007871836049367</v>
+        <v>1.012638712806359</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4171725526050982</v>
+        <v>0.5286023984307801</v>
       </c>
       <c r="P13" t="n">
-        <v>197.6637846081057</v>
+        <v>196.7168381758611</v>
       </c>
       <c r="Q13" t="n">
-        <v>315.8947396203212</v>
+        <v>314.9477931880766</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9750879870009304</v>
+        <v>0.9608705741632469</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7560842505680219</v>
+        <v>0.7965214043534168</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8762846684016796</v>
+        <v>0.5803136174678198</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9675157459604052</v>
+        <v>0.9744447151768338</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9492093103032569</v>
+        <v>0.9033447788124305</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1665867456340513</v>
+        <v>0.2616586507448064</v>
       </c>
       <c r="H14" t="n">
-        <v>1.631065739580392</v>
+        <v>1.360662306021484</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5505521277584537</v>
+        <v>1.302446962042422</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4311259928301059</v>
+        <v>0.2831962771027133</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4908390602942799</v>
+        <v>0.7928217357508192</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4911903654824611</v>
+        <v>0.4382509409269016</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4081503958518861</v>
+        <v>0.5115258065286701</v>
       </c>
       <c r="N14" t="n">
-        <v>1.008190250849009</v>
+        <v>1.012864468768248</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4255262031910958</v>
+        <v>0.5333025191169911</v>
       </c>
       <c r="P14" t="n">
-        <v>197.5844782208664</v>
+        <v>196.6814289688667</v>
       </c>
       <c r="Q14" t="n">
-        <v>315.8154332330819</v>
+        <v>314.9123839810822</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9741585150918493</v>
+        <v>0.9602093707676659</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7539906553652962</v>
+        <v>0.795506136809676</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8714200838701753</v>
+        <v>0.573861380084431</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9653675839609629</v>
+        <v>0.9729047967325566</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9466141908248887</v>
+        <v>0.9010839978272518</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1728021285699008</v>
+        <v>0.2660801208956188</v>
       </c>
       <c r="H15" t="n">
-        <v>1.645065620341138</v>
+        <v>1.367451404761356</v>
       </c>
       <c r="I15" t="n">
-        <v>0.572200272170952</v>
+        <v>1.322470716274493</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4596360664688812</v>
+        <v>0.3002612080349562</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5159181843171876</v>
+        <v>0.8113659621547247</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4951023886834465</v>
+        <v>0.4078307659216027</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4156947540803236</v>
+        <v>0.5158295463577274</v>
       </c>
       <c r="N15" t="n">
-        <v>1.008495830654734</v>
+        <v>1.013081850706521</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4333917403682924</v>
+        <v>0.5377894780605411</v>
       </c>
       <c r="P15" t="n">
-        <v>197.5112162091504</v>
+        <v>196.6479156183589</v>
       </c>
       <c r="Q15" t="n">
-        <v>315.7421712213659</v>
+        <v>314.8788706305744</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9732759817371203</v>
+        <v>0.9595794905881393</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7520499246075577</v>
+        <v>0.7945592869723999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8669989629909063</v>
+        <v>0.5680138562315858</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9633806925954834</v>
+        <v>0.9714759896149338</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9442319189272529</v>
+        <v>0.8990126529578234</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1787036331766662</v>
+        <v>0.2702921325564447</v>
       </c>
       <c r="H16" t="n">
-        <v>1.658043295854379</v>
+        <v>1.373782993983064</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5918749355753375</v>
+        <v>1.340617813713436</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4860057812095609</v>
+        <v>0.3160948353730419</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5389403583924492</v>
+        <v>0.8283563245432388</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4984870757166903</v>
+        <v>0.3803748184238479</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4227335250209832</v>
+        <v>0.5198962709583949</v>
       </c>
       <c r="N16" t="n">
-        <v>1.008785978606974</v>
+        <v>1.01328893460116</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4407301663601603</v>
+        <v>0.5420293315467394</v>
       </c>
       <c r="P16" t="n">
-        <v>197.444053051745</v>
+        <v>196.6165038649256</v>
       </c>
       <c r="Q16" t="n">
-        <v>315.6750080639605</v>
+        <v>314.847458877141</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9724449776858339</v>
+        <v>0.9589846213330362</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7502580342870644</v>
+        <v>0.7936805417828235</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8629893434623375</v>
+        <v>0.5627189503358376</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9615493587294071</v>
+        <v>0.9701558033911175</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9420512039440047</v>
+        <v>0.8971192116077744</v>
       </c>
       <c r="G17" t="n">
-        <v>0.18426056109404</v>
+        <v>0.2742700260044406</v>
       </c>
       <c r="H17" t="n">
-        <v>1.670025674678413</v>
+        <v>1.37965916711201</v>
       </c>
       <c r="I17" t="n">
-        <v>0.609718355096879</v>
+        <v>1.357049926798947</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5103109608899448</v>
+        <v>0.3307247573736822</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5600146950383613</v>
+        <v>0.8438874199071922</v>
       </c>
       <c r="L17" t="n">
-        <v>0.501413517811704</v>
+        <v>0.3555953650367009</v>
       </c>
       <c r="M17" t="n">
-        <v>0.429255822434641</v>
+        <v>0.5237079586987776</v>
       </c>
       <c r="N17" t="n">
-        <v>1.009059185418356</v>
+        <v>1.013484508054892</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4475301314777345</v>
+        <v>0.5460032907255116</v>
       </c>
       <c r="P17" t="n">
-        <v>197.3828088603695</v>
+        <v>196.5872843230205</v>
       </c>
       <c r="Q17" t="n">
-        <v>315.613763872585</v>
+        <v>314.8182393352359</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9716677692540229</v>
+        <v>0.9584265872888943</v>
       </c>
       <c r="C18" t="n">
-        <v>0.748609044417631</v>
+        <v>0.7928683366555781</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8593598767508086</v>
+        <v>0.5579266877952787</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9598662497434163</v>
+        <v>0.968940165291643</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9400598079441586</v>
+        <v>0.8953914973218239</v>
       </c>
       <c r="G18" t="n">
-        <v>0.189457757456276</v>
+        <v>0.2780016022271275</v>
       </c>
       <c r="H18" t="n">
-        <v>1.681052477528215</v>
+        <v>1.385090386537761</v>
       </c>
       <c r="I18" t="n">
-        <v>0.625870036500025</v>
+        <v>1.371922145786853</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5326489228989245</v>
+        <v>0.3441961072904448</v>
       </c>
       <c r="K18" t="n">
-        <v>0.579259461098329</v>
+        <v>0.8580591265386488</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5039495041763061</v>
+        <v>0.3354308421078687</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4352674550851189</v>
+        <v>0.5272585724548511</v>
       </c>
       <c r="N18" t="n">
-        <v>1.009314705998677</v>
+        <v>1.013667971302281</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4537976917759384</v>
+        <v>0.5497050614599649</v>
       </c>
       <c r="P18" t="n">
-        <v>197.3271783902142</v>
+        <v>196.5602568038024</v>
       </c>
       <c r="Q18" t="n">
-        <v>315.5581334024296</v>
+        <v>314.7912118160178</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9709448044534025</v>
+        <v>0.9579062067833303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7470959179844485</v>
+        <v>0.7921201729105426</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8560781288016912</v>
+        <v>0.5535933047711634</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9583234536783789</v>
+        <v>0.9678241869872121</v>
       </c>
       <c r="F19" t="n">
-        <v>0.938244806798922</v>
+        <v>0.8938178988519528</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1942922264069717</v>
+        <v>0.2814813890639661</v>
       </c>
       <c r="H19" t="n">
-        <v>1.691170760954213</v>
+        <v>1.390093360945791</v>
       </c>
       <c r="I19" t="n">
-        <v>0.640474316283389</v>
+        <v>1.385370286565384</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5531246735337672</v>
+        <v>0.3565630561751523</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5967995548021183</v>
+        <v>0.8709666865745104</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5061449486139098</v>
+        <v>0.31834953733875</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4407859190207551</v>
+        <v>0.5305481967399062</v>
       </c>
       <c r="N19" t="n">
-        <v>1.009552393056416</v>
+        <v>1.013839055304111</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4595510881461098</v>
+        <v>0.5531347318612958</v>
       </c>
       <c r="P19" t="n">
-        <v>197.2767838631958</v>
+        <v>196.535377894075</v>
       </c>
       <c r="Q19" t="n">
-        <v>315.5077388754113</v>
+        <v>314.7663329062904</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9702754878768733</v>
+        <v>0.9574231677339092</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7457108178405656</v>
+        <v>0.7914330332479353</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8531153927201133</v>
+        <v>0.549676192655923</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9569123159948216</v>
+        <v>0.9668022312445245</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9365936763057631</v>
+        <v>0.8923865629643396</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1987679494361416</v>
+        <v>0.2847114734116351</v>
       </c>
       <c r="H20" t="n">
-        <v>1.700432931994158</v>
+        <v>1.394688267033632</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6536589445152036</v>
+        <v>1.397526579899688</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5718530745031126</v>
+        <v>0.3678880742172326</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6127560095091581</v>
+        <v>0.8827073270584604</v>
       </c>
       <c r="L20" t="n">
-        <v>0.508042202280144</v>
+        <v>0.3029935205990779</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4458339931366176</v>
+        <v>0.533583614264564</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00977244234185</v>
+        <v>1.013997862662824</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4648140692280385</v>
+        <v>0.5562993733941588</v>
       </c>
       <c r="P20" t="n">
-        <v>197.2312344357943</v>
+        <v>196.5125579710088</v>
       </c>
       <c r="Q20" t="n">
-        <v>315.4621894480098</v>
+        <v>314.7435129832243</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9696581307122953</v>
+        <v>0.9569766531381012</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7444455426195591</v>
+        <v>0.7908035159032433</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8504423619082685</v>
+        <v>0.546137893965876</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9556240884029661</v>
+        <v>0.9658684284647391</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9350936362753978</v>
+        <v>0.8910864369571871</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2028962196383424</v>
+        <v>0.2876973185698142</v>
       </c>
       <c r="H21" t="n">
-        <v>1.708893833223085</v>
+        <v>1.398897852416249</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6655543400333852</v>
+        <v>1.408507270652258</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5889502317551432</v>
+        <v>0.3782362066138493</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6272523324239365</v>
+        <v>0.8933717086099244</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5096946312020025</v>
+        <v>0.2891988148115396</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4504400289032297</v>
+        <v>0.536374233693057</v>
       </c>
       <c r="N21" t="n">
-        <v>1.009975409080889</v>
+        <v>1.014144661981994</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4696161934730438</v>
+        <v>0.5592087952691014</v>
       </c>
       <c r="P21" t="n">
-        <v>197.1901213279466</v>
+        <v>196.4916926573962</v>
       </c>
       <c r="Q21" t="n">
-        <v>315.4210763401621</v>
+        <v>314.7226476696117</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9690905673734757</v>
+        <v>0.9565652649485228</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7432918368358894</v>
+        <v>0.7902280358201249</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8480332007307969</v>
+        <v>0.5429421770241765</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9544498966981917</v>
+        <v>0.9650169277587375</v>
       </c>
       <c r="F22" t="n">
-        <v>0.933732665202502</v>
+        <v>0.8899067156376378</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2066915182984191</v>
+        <v>0.2904482732877935</v>
       </c>
       <c r="H22" t="n">
-        <v>1.716608669110811</v>
+        <v>1.402746090381904</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6762754753626469</v>
+        <v>1.418424799539307</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6045339223603424</v>
+        <v>0.3876722912264298</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6404046988614946</v>
+        <v>0.9030484616375991</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5111236259593042</v>
+        <v>0.2767969918475056</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4546333888952934</v>
+        <v>0.5389325312947749</v>
       </c>
       <c r="N22" t="n">
-        <v>1.010162005247077</v>
+        <v>1.014279912893636</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4739880734814215</v>
+        <v>0.5618760048961304</v>
       </c>
       <c r="P22" t="n">
-        <v>197.153055694019</v>
+        <v>196.4726595590327</v>
       </c>
       <c r="Q22" t="n">
-        <v>315.3840107062344</v>
+        <v>314.7036145712482</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9685701881719568</v>
+        <v>0.9561872985105337</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7422414205837191</v>
+        <v>0.7897029087941023</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8458626751493943</v>
+        <v>0.5400574132990777</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9533812864271083</v>
+        <v>0.964241465491732</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9324991348826733</v>
+        <v>0.8888371650538012</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2101712964151013</v>
+        <v>0.2929757365990011</v>
       </c>
       <c r="H23" t="n">
-        <v>1.723632807425795</v>
+        <v>1.406257617222904</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6859346458288851</v>
+        <v>1.427377321961635</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6187163525158184</v>
+        <v>0.3962657398445611</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6523254832935281</v>
+        <v>0.9118215309030979</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5123659968919528</v>
+        <v>0.265650986064398</v>
       </c>
       <c r="M23" t="n">
-        <v>0.458444431109269</v>
+        <v>0.5412723312704992</v>
       </c>
       <c r="N23" t="n">
-        <v>1.010333088820178</v>
+        <v>1.014404175832153</v>
       </c>
       <c r="O23" t="n">
-        <v>0.477961359652391</v>
+        <v>0.564315415000875</v>
       </c>
       <c r="P23" t="n">
-        <v>197.1196647671001</v>
+        <v>196.4553309672727</v>
       </c>
       <c r="Q23" t="n">
-        <v>315.3506197793156</v>
+        <v>314.6862859794882</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9680941526532627</v>
+        <v>0.9558409710944081</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7412864625037888</v>
+        <v>0.7892245043802679</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8439077164363582</v>
+        <v>0.537454058064137</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9524100165199401</v>
+        <v>0.9635365029780111</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9313820748733155</v>
+        <v>0.8878684853715365</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2133545481205505</v>
+        <v>0.2952916296253247</v>
       </c>
       <c r="H24" t="n">
-        <v>1.730018616503467</v>
+        <v>1.409456709741065</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6946345107949874</v>
+        <v>1.435456526477177</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6316068964243692</v>
+        <v>0.4040779305817879</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6631207036096782</v>
+        <v>0.9197671989967986</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5134486319067618</v>
+        <v>0.2556265301190787</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4619031804616098</v>
+        <v>0.5434074250737883</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010489593648242</v>
+        <v>1.014518036900468</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4815673551252592</v>
+        <v>0.5665414041676234</v>
       </c>
       <c r="P24" t="n">
-        <v>197.0895999038514</v>
+        <v>196.4395836719194</v>
       </c>
       <c r="Q24" t="n">
-        <v>315.3205549160669</v>
+        <v>314.6705386841348</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9676595972331289</v>
+        <v>0.9555242141528236</v>
       </c>
       <c r="C25" t="n">
-        <v>0.740419222160053</v>
+        <v>0.7887892846129644</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8421483562136325</v>
+        <v>0.5351047851912205</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9515280615895317</v>
+        <v>0.9628962327308067</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9303713833674805</v>
+        <v>0.8869915543375589</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2162604222159293</v>
+        <v>0.2974097847522315</v>
       </c>
       <c r="H25" t="n">
-        <v>1.735817856675304</v>
+        <v>1.412367026329027</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7024639325942205</v>
+        <v>1.442747216486888</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6433120657824288</v>
+        <v>0.4111732203272397</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6728879832417018</v>
+        <v>0.926960291888725</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5143946129419638</v>
+        <v>0.2466137824312749</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4650380868444318</v>
+        <v>0.5453528992792021</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010632461183629</v>
+        <v>1.014622176168935</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4848357209629487</v>
+        <v>0.5685697012376486</v>
       </c>
       <c r="P25" t="n">
-        <v>197.0625438782266</v>
+        <v>196.4252886890294</v>
       </c>
       <c r="Q25" t="n">
-        <v>315.2934988904422</v>
+        <v>314.6562437012449</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9672635168044958</v>
+        <v>0.9552351411215816</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7396325348443116</v>
+        <v>0.7883937980088833</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8405648520502254</v>
+        <v>0.5329862496061896</v>
       </c>
       <c r="E26" t="n">
-        <v>0.950727953702853</v>
+        <v>0.9623154270754967</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9294573834992015</v>
+        <v>0.8861984515432938</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2189090138659809</v>
+        <v>0.2993428174432057</v>
       </c>
       <c r="H26" t="n">
-        <v>1.741078438378028</v>
+        <v>1.415011647071565</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7095107680608924</v>
+        <v>1.449321840662336</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6539309738415487</v>
+        <v>0.417609540659498</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6817208390098315</v>
+        <v>0.933465777327094</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5152186133816643</v>
+        <v>0.2385100845013167</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4678771354383338</v>
+        <v>0.5471223057445253</v>
       </c>
       <c r="N26" t="n">
-        <v>1.010762679406741</v>
+        <v>1.014717213877836</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4877956337331339</v>
+        <v>0.5704144349993769</v>
       </c>
       <c r="P26" t="n">
-        <v>197.038198194586</v>
+        <v>196.4123316314825</v>
       </c>
       <c r="Q26" t="n">
-        <v>315.2691532068014</v>
+        <v>314.643286643698</v>
       </c>
     </row>
   </sheetData>
